--- a/CEA_model/Mierendorff_Full/2020_GER_Updated/inputs/technology/components/FEEDSTOCKS.xlsx
+++ b/CEA_model/Mierendorff_Full/2020_GER_Updated/inputs/technology/components/FEEDSTOCKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/DE/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E185C5E-DEA8-784A-98EA-EF29413303AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E826E1B-62B6-422A-B7AB-B01A746F4791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="43380" windowHeight="25120" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="16200" windowWidth="28800" windowHeight="15300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRID" sheetId="3" r:id="rId1"/>
@@ -55,71 +55,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00690039-003B-460D-BCF6-00F0008200CD}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00A20003-0040-4D9E-A9F6-00CA00C00031}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00070014-0054-4CB9-9C2B-006400CD00C1}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -136,71 +94,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{002A006B-00F3-465D-926F-00B3008E006F}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00C800EB-0079-4597-ADCF-0040005B0075}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00B7007B-0082-4EF6-817D-007F00B5003A}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -217,71 +133,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{006300D9-005F-4513-BA6F-00A2007900B3}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00480066-00A5-4F65-8DAF-00A80062009A}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{008A00CF-0015-45A1-85CC-005D007C0033}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -298,71 +172,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00340062-00F4-4181-811B-002900CA0064}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00FE00E4-0037-4664-BD37-005E0005006D}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00640047-00BD-4231-A91A-0057008C0099}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -379,71 +211,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{001E0064-009B-45BA-B3D1-00CB00A40039}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00EF001A-0035-4581-A59A-00D2008D0065}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{0049009C-0054-40B0-ABA4-00700078003A}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -460,71 +250,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{000D00FC-0003-4DBE-B6AD-0088003B004F}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{006800B8-0025-4834-80F0-0016008E00E2}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00AE00CB-00B7-4D50-A48B-00FA004E00E8}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -541,71 +289,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00A2000F-00A6-4B33-A2A2-009100DF004F}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{002C00BC-0002-4FB6-A945-009600C30034}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00B000BC-009A-4976-8B16-00AE00FC005D}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -622,71 +328,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{002E0022-0099-42BD-A425-000A002600C6}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00930055-0069-4C5E-B73E-002B00620020}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{0024004B-008B-4748-AFC7-004200FE00F3}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -703,71 +367,29 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{004C0076-00DE-4E86-A501-008700F5005C}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{003A00F0-00EC-4C19-BAB4-00C900800004}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="2" shapeId="0" xr:uid="{00770040-00CF-4284-98C0-007A001B004E}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jimeno:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -1230,10 +852,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,17 +890,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1409,10 +1020,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1420,7 +1031,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1432,33 +1043,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1467,31 +1077,31 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1518,7 +1128,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Jimeno" id="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}"/>
+  <person displayName="Jimeno" id="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" userId="" providerId=""/>
 </personList>
 </file>
 
@@ -1793,15 +1403,15 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{002E0022-0099-42BD-A425-000A002600C6}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00690039-003B-460D-BCF6-00F0008200CD}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00930055-0069-4C5E-B73E-002B00620020}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00A20003-0040-4D9E-A9F6-00CA00C00031}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{0024004B-008B-4748-AFC7-004200FE00F3}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00070014-0054-4CB9-9C2B-006400CD00C1}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1810,15 +1420,15 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{004C0076-00DE-4E86-A501-008700F5005C}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{006300D9-005F-4513-BA6F-00A2007900B3}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{003A00F0-00EC-4C19-BAB4-00C900800004}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00480066-00A5-4F65-8DAF-00A80062009A}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00770040-00CF-4284-98C0-007A001B004E}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{008A00CF-0015-45A1-85CC-005D007C0033}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1827,15 +1437,15 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00690039-003B-460D-BCF6-00F0008200CD}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00340062-00F4-4181-811B-002900CA0064}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00A20003-0040-4D9E-A9F6-00CA00C00031}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00FE00E4-0037-4664-BD37-005E0005006D}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00070014-0054-4CB9-9C2B-006400CD00C1}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00640047-00BD-4231-A91A-0057008C0099}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1844,15 +1454,15 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{002A006B-00F3-465D-926F-00B3008E006F}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{001E0064-009B-45BA-B3D1-00CB00A40039}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00C800EB-0079-4597-ADCF-0040005B0075}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00EF001A-0035-4581-A59A-00D2008D0065}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00B7007B-0082-4EF6-817D-007F00B5003A}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{0049009C-0054-40B0-ABA4-00700078003A}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1861,15 +1471,15 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00A2000F-00A6-4B33-A2A2-009100DF004F}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{000D00FC-0003-4DBE-B6AD-0088003B004F}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{002C00BC-0002-4FB6-A945-009600C30034}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{006800B8-0025-4834-80F0-0016008E00E2}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00B000BC-009A-4976-8B16-00AE00FC005D}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00AE00CB-00B7-4D50-A48B-00FA004E00E8}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1878,15 +1488,15 @@
 
 <file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{000D00FC-0003-4DBE-B6AD-0088003B004F}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00A2000F-00A6-4B33-A2A2-009100DF004F}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{006800B8-0025-4834-80F0-0016008E00E2}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{002C00BC-0002-4FB6-A945-009600C30034}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00AE00CB-00B7-4D50-A48B-00FA004E00E8}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00B000BC-009A-4976-8B16-00AE00FC005D}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1895,15 +1505,15 @@
 
 <file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{006300D9-005F-4513-BA6F-00A2007900B3}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{002E0022-0099-42BD-A425-000A002600C6}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00480066-00A5-4F65-8DAF-00A80062009A}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00930055-0069-4C5E-B73E-002B00620020}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{008A00CF-0015-45A1-85CC-005D007C0033}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{0024004B-008B-4748-AFC7-004200FE00F3}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1912,15 +1522,15 @@
 
 <file path=xl/threadedComments/threadedComment8.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00340062-00F4-4181-811B-002900CA0064}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{004C0076-00DE-4E86-A501-008700F5005C}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00FE00E4-0037-4664-BD37-005E0005006D}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{003A00F0-00EC-4C19-BAB4-00C900800004}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00640047-00BD-4231-A91A-0057008C0099}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00770040-00CF-4284-98C0-007A001B004E}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1929,15 +1539,15 @@
 
 <file path=xl/threadedComments/threadedComment9.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{001E0064-009B-45BA-B3D1-00CB00A40039}" done="0">
+  <threadedComment ref="B1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{002A006B-00F3-465D-926F-00B3008E006F}">
     <text xml:space="preserve">green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr
 </text>
   </threadedComment>
-  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00EF001A-0035-4581-A59A-00D2008D0065}" done="0">
+  <threadedComment ref="C1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00C800EB-0079-4597-ADCF-0040005B0075}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
-  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{0049009C-0054-40B0-ABA4-00700078003A}" done="0">
+  <threadedComment ref="D1" personId="{CE449D8B-E5CF-3450-06AC-E6A74CFAE8AA}" id="{00B7007B-0082-4EF6-817D-007F00B5003A}">
     <text xml:space="preserve">Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr
 </text>
   </threadedComment>
@@ -1952,16 +1562,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +1605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +1622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2029,7 +1639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2046,7 +1656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2063,7 +1673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2080,7 +1690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2097,7 +1707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2114,7 +1724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2131,7 +1741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2148,7 +1758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2165,7 +1775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2182,7 +1792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2199,7 +1809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2216,7 +1826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2233,7 +1843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2250,7 +1860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -2267,7 +1877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -2284,7 +1894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2301,7 +1911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -2318,7 +1928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2335,7 +1945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -2352,7 +1962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -2369,7 +1979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -2398,19 +2008,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2427,7 +2037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2444,7 +2054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2461,7 +2071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2495,7 +2105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2512,7 +2122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2529,7 +2139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2546,7 +2156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2563,7 +2173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2580,7 +2190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2597,7 +2207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2614,7 +2224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2631,7 +2241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2648,7 +2258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2665,7 +2275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2682,7 +2292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2699,7 +2309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -2716,7 +2326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -2733,7 +2343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2750,7 +2360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -2767,7 +2377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2784,7 +2394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -2801,7 +2411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -2818,7 +2428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -2846,355 +2456,356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D686370D-AAAF-E54A-B3A2-0C48F8BEDD0D}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="7"/>
-    <col min="8" max="8" width="17.1640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="102.33203125" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="36.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.81640625" style="7"/>
+    <col min="8" max="8" width="17.1796875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="102.36328125" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>100</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>35</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>25</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>10</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>0</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>100</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>60</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>30</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>20</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>10</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>0</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -3203,391 +2814,391 @@
       <c r="F13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>230</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>22000</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>66000</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>74</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>71</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>68</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="16" t="s">
         <v>64</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>59</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="24" t="s">
         <v>55</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>48</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <v>200</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>1500</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3604,16 +3215,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3630,7 +3241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3648,7 +3259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3666,7 +3277,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3684,7 +3295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3702,7 +3313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3720,7 +3331,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -3738,7 +3349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3756,7 +3367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -3774,7 +3385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -3792,7 +3403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -3810,7 +3421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -3828,7 +3439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -3846,7 +3457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -3864,7 +3475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -3882,7 +3493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3900,7 +3511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -3918,7 +3529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -3936,7 +3547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -3954,7 +3565,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -3972,7 +3583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -3990,7 +3601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4008,7 +3619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -4026,7 +3637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -4044,7 +3655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -4077,16 +3688,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4103,7 +3714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4121,7 +3732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -4139,7 +3750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4157,7 +3768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4175,7 +3786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4193,7 +3804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4211,7 +3822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -4229,7 +3840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -4247,7 +3858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -4265,7 +3876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -4283,7 +3894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -4301,7 +3912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -4319,7 +3930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -4337,7 +3948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -4355,7 +3966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -4373,7 +3984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -4391,7 +4002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -4409,7 +4020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -4427,7 +4038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -4445,7 +4056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -4463,7 +4074,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4481,7 +4092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -4499,7 +4110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -4517,7 +4128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -4550,16 +4161,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4576,7 +4187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4596,7 +4207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -4616,7 +4227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4636,7 +4247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4656,7 +4267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4676,7 +4287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4696,7 +4307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -4716,7 +4327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -4736,7 +4347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -4756,7 +4367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -4776,7 +4387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -4796,7 +4407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -4816,7 +4427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -4836,7 +4447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -4856,7 +4467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -4876,7 +4487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -4896,7 +4507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -4916,7 +4527,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -4936,7 +4547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -4956,7 +4567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -4976,7 +4587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4996,7 +4607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -5016,7 +4627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -5036,7 +4647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -5068,19 +4679,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5097,7 +4708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +4726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -5133,7 +4744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5151,7 +4762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5169,7 +4780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5187,7 +4798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5205,7 +4816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -5223,7 +4834,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -5241,7 +4852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -5259,7 +4870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -5277,7 +4888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -5295,7 +4906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -5313,7 +4924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -5331,7 +4942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -5349,7 +4960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -5367,7 +4978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -5385,7 +4996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -5403,7 +5014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -5421,7 +5032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -5439,7 +5050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -5457,7 +5068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -5475,7 +5086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -5493,7 +5104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -5511,7 +5122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -5544,16 +5155,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5570,7 +5181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5588,7 +5199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -5606,7 +5217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5624,7 +5235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5642,7 +5253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5660,7 +5271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5678,7 +5289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -5696,7 +5307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -5714,7 +5325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -5732,7 +5343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -5750,7 +5361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -5768,7 +5379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -5786,7 +5397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -5804,7 +5415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -5822,7 +5433,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -5840,7 +5451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -5858,7 +5469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -5876,7 +5487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -5894,7 +5505,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -5912,7 +5523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -5930,7 +5541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -5948,7 +5559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -5966,7 +5577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -5984,7 +5595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -6017,16 +5628,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6043,7 +5654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -6061,7 +5672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -6079,7 +5690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6097,7 +5708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -6115,7 +5726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -6133,7 +5744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -6151,7 +5762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -6169,7 +5780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -6187,7 +5798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -6205,7 +5816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -6223,7 +5834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6241,7 +5852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -6259,7 +5870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -6277,7 +5888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -6295,7 +5906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -6313,7 +5924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -6331,7 +5942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -6349,7 +5960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -6367,7 +5978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -6385,7 +5996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -6403,7 +6014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -6421,7 +6032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -6439,7 +6050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -6457,7 +6068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -6490,16 +6101,16 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6516,7 +6127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -6534,7 +6145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -6552,7 +6163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6570,7 +6181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -6588,7 +6199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -6606,7 +6217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -6624,7 +6235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -6642,7 +6253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -6660,7 +6271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -6678,7 +6289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -6696,7 +6307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -6714,7 +6325,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -6732,7 +6343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -6750,7 +6361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -6768,7 +6379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -6786,7 +6397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -6804,7 +6415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -6822,7 +6433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -6840,7 +6451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -6858,7 +6469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -6876,7 +6487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -6894,7 +6505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -6912,7 +6523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -6930,7 +6541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -6957,21 +6568,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF430A2-5C03-3E45-B68D-82F4CC05159E}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="16.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="7"/>
+    <col min="2" max="2" width="16.36328125" style="7" customWidth="1"/>
     <col min="3" max="3" width="16" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="7"/>
+    <col min="4" max="16384" width="10.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6988,7 +6599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -7005,7 +6616,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -7022,7 +6633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -7039,7 +6650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -7056,7 +6667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -7073,7 +6684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -7090,7 +6701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -7107,7 +6718,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -7124,7 +6735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
@@ -7141,7 +6752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -7158,7 +6769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -7175,7 +6786,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
@@ -7192,7 +6803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
@@ -7209,7 +6820,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -7226,7 +6837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
@@ -7243,7 +6854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
@@ -7260,7 +6871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
@@ -7277,7 +6888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
@@ -7294,7 +6905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>24</v>
       </c>
@@ -7311,7 +6922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>25</v>
       </c>
@@ -7328,7 +6939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
@@ -7345,7 +6956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>27</v>
       </c>
@@ -7362,7 +6973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>28</v>
       </c>
@@ -7379,7 +6990,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>29</v>
       </c>
@@ -7396,47 +7007,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-    </row>
-    <row r="62" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-    </row>
-    <row r="63" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-    </row>
-    <row r="64" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L64" s="13"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-    </row>
-    <row r="65" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-    </row>
-    <row r="66" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
+    <row r="64" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
